--- a/lib/seeds/Cities_Master.xlsx
+++ b/lib/seeds/Cities_Master.xlsx
@@ -2220,7 +2220,7 @@
   <dimension ref="A1:L504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2289,7 +2289,8 @@
         <v>37</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <f>IF(E2&gt;5000000,500,250)</f>
+        <v>250</v>
       </c>
       <c r="I2">
         <v>420</v>
@@ -2327,7 +2328,8 @@
         <v>37</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <f t="shared" ref="H3:H66" si="0">IF(E3&gt;5000000,500,250)</f>
+        <v>500</v>
       </c>
       <c r="I3">
         <v>700</v>
@@ -2365,7 +2367,8 @@
         <v>37</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I4">
         <v>140</v>
@@ -2403,7 +2406,8 @@
         <v>37</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I5">
         <v>140</v>
@@ -2441,7 +2445,8 @@
         <v>37</v>
       </c>
       <c r="H6">
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I6">
         <v>560</v>
@@ -2479,7 +2484,8 @@
         <v>37</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I7">
         <v>140</v>
@@ -2517,7 +2523,8 @@
         <v>37</v>
       </c>
       <c r="H8">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I8">
         <v>210</v>
@@ -2555,7 +2562,8 @@
         <v>37</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I9">
         <v>210</v>
@@ -2593,7 +2601,8 @@
         <v>37</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I10">
         <v>140</v>
@@ -2631,7 +2640,8 @@
         <v>37</v>
       </c>
       <c r="H11">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="I11">
         <v>1050</v>
@@ -2669,7 +2679,8 @@
         <v>37</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I12">
         <v>140</v>
@@ -2707,7 +2718,8 @@
         <v>37</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I13">
         <v>140</v>
@@ -2745,7 +2757,8 @@
         <v>37</v>
       </c>
       <c r="H14">
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I14">
         <v>490</v>
@@ -2783,7 +2796,8 @@
         <v>37</v>
       </c>
       <c r="H15">
-        <v>230</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="I15">
         <v>1610</v>
@@ -2821,7 +2835,8 @@
         <v>37</v>
       </c>
       <c r="H16">
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I16">
         <v>560</v>
@@ -2859,7 +2874,8 @@
         <v>37</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I17">
         <v>350</v>
@@ -2897,7 +2913,8 @@
         <v>37</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I18">
         <v>420</v>
@@ -2935,7 +2952,8 @@
         <v>37</v>
       </c>
       <c r="H19">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I19">
         <v>280</v>
@@ -2973,7 +2991,8 @@
         <v>37</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I20">
         <v>210</v>
@@ -3011,7 +3030,8 @@
         <v>37</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I21">
         <v>140</v>
@@ -3049,7 +3069,8 @@
         <v>37</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I22">
         <v>140</v>
@@ -3087,7 +3108,8 @@
         <v>37</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I23">
         <v>280</v>
@@ -3125,7 +3147,8 @@
         <v>37</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I24">
         <v>140</v>
@@ -3163,7 +3186,8 @@
         <v>37</v>
       </c>
       <c r="H25">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I25">
         <v>210</v>
@@ -3201,7 +3225,8 @@
         <v>37</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I26">
         <v>140</v>
@@ -3239,7 +3264,8 @@
         <v>37</v>
       </c>
       <c r="H27">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I27">
         <v>420</v>
@@ -3277,7 +3303,8 @@
         <v>37</v>
       </c>
       <c r="H28">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I28">
         <v>210</v>
@@ -3315,7 +3342,8 @@
         <v>37</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I29">
         <v>140</v>
@@ -3353,7 +3381,8 @@
         <v>37</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I30">
         <v>140</v>
@@ -3391,7 +3420,8 @@
         <v>37</v>
       </c>
       <c r="H31">
-        <v>180</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="I31">
         <v>1260</v>
@@ -3429,7 +3459,8 @@
         <v>37</v>
       </c>
       <c r="H32">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I32">
         <v>420</v>
@@ -3467,7 +3498,8 @@
         <v>37</v>
       </c>
       <c r="H33">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I33">
         <v>350</v>
@@ -3505,7 +3537,8 @@
         <v>37</v>
       </c>
       <c r="H34">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I34">
         <v>210</v>
@@ -3543,7 +3576,8 @@
         <v>37</v>
       </c>
       <c r="H35">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I35">
         <v>140</v>
@@ -3581,7 +3615,8 @@
         <v>37</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I36">
         <v>140</v>
@@ -3619,7 +3654,8 @@
         <v>37</v>
       </c>
       <c r="H37">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I37">
         <v>140</v>
@@ -3657,7 +3693,8 @@
         <v>37</v>
       </c>
       <c r="H38">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I38">
         <v>140</v>
@@ -3695,7 +3732,8 @@
         <v>37</v>
       </c>
       <c r="H39">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I39">
         <v>350</v>
@@ -3733,7 +3771,8 @@
         <v>37</v>
       </c>
       <c r="H40">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I40">
         <v>140</v>
@@ -3771,7 +3810,8 @@
         <v>37</v>
       </c>
       <c r="H41">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I41">
         <v>420</v>
@@ -3809,7 +3849,8 @@
         <v>37</v>
       </c>
       <c r="H42">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I42">
         <v>420</v>
@@ -3847,7 +3888,8 @@
         <v>37</v>
       </c>
       <c r="H43">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I43">
         <v>350</v>
@@ -3885,7 +3927,8 @@
         <v>37</v>
       </c>
       <c r="H44">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I44">
         <v>350</v>
@@ -3923,7 +3966,8 @@
         <v>37</v>
       </c>
       <c r="H45">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I45">
         <v>140</v>
@@ -3961,7 +4005,8 @@
         <v>37</v>
       </c>
       <c r="H46">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I46">
         <v>140</v>
@@ -3999,7 +4044,8 @@
         <v>37</v>
       </c>
       <c r="H47">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I47">
         <v>140</v>
@@ -4037,7 +4083,8 @@
         <v>37</v>
       </c>
       <c r="H48">
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I48">
         <v>630</v>
@@ -4075,7 +4122,8 @@
         <v>37</v>
       </c>
       <c r="H49">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I49">
         <v>280</v>
@@ -4113,7 +4161,8 @@
         <v>37</v>
       </c>
       <c r="H50">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I50">
         <v>350</v>
@@ -4151,7 +4200,8 @@
         <v>37</v>
       </c>
       <c r="H51">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I51">
         <v>140</v>
@@ -4189,7 +4239,8 @@
         <v>37</v>
       </c>
       <c r="H52">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I52">
         <v>280</v>
@@ -4227,7 +4278,8 @@
         <v>37</v>
       </c>
       <c r="H53">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I53">
         <v>140</v>
@@ -4265,7 +4317,8 @@
         <v>37</v>
       </c>
       <c r="H54">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I54">
         <v>140</v>
@@ -4303,7 +4356,8 @@
         <v>37</v>
       </c>
       <c r="H55">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I55">
         <v>210</v>
@@ -4341,7 +4395,8 @@
         <v>13</v>
       </c>
       <c r="H56">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I56">
         <v>420</v>
@@ -4379,7 +4434,8 @@
         <v>13</v>
       </c>
       <c r="H57">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I57">
         <v>140</v>
@@ -4417,7 +4473,8 @@
         <v>13</v>
       </c>
       <c r="H58">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I58">
         <v>280</v>
@@ -4455,7 +4512,8 @@
         <v>13</v>
       </c>
       <c r="H59">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="I59">
         <v>1750</v>
@@ -4493,7 +4551,8 @@
         <v>13</v>
       </c>
       <c r="H60">
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I60">
         <v>630</v>
@@ -4531,7 +4590,8 @@
         <v>13</v>
       </c>
       <c r="H61">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I61">
         <v>210</v>
@@ -4569,7 +4629,8 @@
         <v>13</v>
       </c>
       <c r="H62">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="I62">
         <v>140</v>
@@ -4607,7 +4668,8 @@
         <v>13</v>
       </c>
       <c r="H63">
-        <v>290</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="I63">
         <v>2030</v>
@@ -4645,7 +4707,8 @@
         <v>13</v>
       </c>
       <c r="H64">
-        <v>220</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="I64">
         <v>1540</v>
@@ -4683,7 +4746,8 @@
         <v>13</v>
       </c>
       <c r="H65">
-        <v>170</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="I65">
         <v>1190</v>
@@ -4721,7 +4785,8 @@
         <v>13</v>
       </c>
       <c r="H66">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="I66">
         <v>1050</v>
@@ -4759,7 +4824,8 @@
         <v>13</v>
       </c>
       <c r="H67">
-        <v>140</v>
+        <f t="shared" ref="H67:H130" si="1">IF(E67&gt;5000000,500,250)</f>
+        <v>500</v>
       </c>
       <c r="I67">
         <v>980</v>
@@ -4797,7 +4863,8 @@
         <v>13</v>
       </c>
       <c r="H68">
-        <v>140</v>
+        <f t="shared" si="1"/>
+        <v>500</v>
       </c>
       <c r="I68">
         <v>980</v>
@@ -4835,7 +4902,8 @@
         <v>13</v>
       </c>
       <c r="H69">
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>500</v>
       </c>
       <c r="I69">
         <v>840</v>
@@ -4873,7 +4941,8 @@
         <v>13</v>
       </c>
       <c r="H70">
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I70">
         <v>630</v>
@@ -4911,7 +4980,8 @@
         <v>13</v>
       </c>
       <c r="H71">
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I71">
         <v>630</v>
@@ -4949,7 +5019,8 @@
         <v>13</v>
       </c>
       <c r="H72">
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I72">
         <v>560</v>
@@ -4987,7 +5058,8 @@
         <v>13</v>
       </c>
       <c r="H73">
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I73">
         <v>560</v>
@@ -5025,7 +5097,8 @@
         <v>13</v>
       </c>
       <c r="H74">
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I74">
         <v>490</v>
@@ -5063,7 +5136,8 @@
         <v>13</v>
       </c>
       <c r="H75">
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I75">
         <v>490</v>
@@ -5101,7 +5175,8 @@
         <v>13</v>
       </c>
       <c r="H76">
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I76">
         <v>490</v>
@@ -5139,7 +5214,8 @@
         <v>13</v>
       </c>
       <c r="H77">
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I77">
         <v>490</v>
@@ -5177,7 +5253,8 @@
         <v>13</v>
       </c>
       <c r="H78">
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I78">
         <v>490</v>
@@ -5215,7 +5292,8 @@
         <v>13</v>
       </c>
       <c r="H79">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I79">
         <v>420</v>
@@ -5253,7 +5331,8 @@
         <v>13</v>
       </c>
       <c r="H80">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I80">
         <v>420</v>
@@ -5291,7 +5370,8 @@
         <v>13</v>
       </c>
       <c r="H81">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I81">
         <v>420</v>
@@ -5329,7 +5409,8 @@
         <v>13</v>
       </c>
       <c r="H82">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I82">
         <v>420</v>
@@ -5367,7 +5448,8 @@
         <v>13</v>
       </c>
       <c r="H83">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I83">
         <v>350</v>
@@ -5405,7 +5487,8 @@
         <v>13</v>
       </c>
       <c r="H84">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I84">
         <v>350</v>
@@ -5443,7 +5526,8 @@
         <v>13</v>
       </c>
       <c r="H85">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I85">
         <v>350</v>
@@ -5481,7 +5565,8 @@
         <v>13</v>
       </c>
       <c r="H86">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I86">
         <v>350</v>
@@ -5519,7 +5604,8 @@
         <v>13</v>
       </c>
       <c r="H87">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I87">
         <v>350</v>
@@ -5557,7 +5643,8 @@
         <v>13</v>
       </c>
       <c r="H88">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I88">
         <v>350</v>
@@ -5595,7 +5682,8 @@
         <v>13</v>
       </c>
       <c r="H89">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I89">
         <v>350</v>
@@ -5633,7 +5721,8 @@
         <v>13</v>
       </c>
       <c r="H90">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I90">
         <v>350</v>
@@ -5671,7 +5760,8 @@
         <v>13</v>
       </c>
       <c r="H91">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I91">
         <v>350</v>
@@ -5709,7 +5799,8 @@
         <v>13</v>
       </c>
       <c r="H92">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I92">
         <v>350</v>
@@ -5747,7 +5838,8 @@
         <v>13</v>
       </c>
       <c r="H93">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I93">
         <v>280</v>
@@ -5785,7 +5877,8 @@
         <v>13</v>
       </c>
       <c r="H94">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I94">
         <v>280</v>
@@ -5823,7 +5916,8 @@
         <v>13</v>
       </c>
       <c r="H95">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I95">
         <v>280</v>
@@ -5861,7 +5955,8 @@
         <v>13</v>
       </c>
       <c r="H96">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I96">
         <v>280</v>
@@ -5899,7 +5994,8 @@
         <v>13</v>
       </c>
       <c r="H97">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I97">
         <v>280</v>
@@ -5937,7 +6033,8 @@
         <v>13</v>
       </c>
       <c r="H98">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I98">
         <v>280</v>
@@ -5975,7 +6072,8 @@
         <v>13</v>
       </c>
       <c r="H99">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I99">
         <v>280</v>
@@ -6013,7 +6111,8 @@
         <v>13</v>
       </c>
       <c r="H100">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I100">
         <v>280</v>
@@ -6051,7 +6150,8 @@
         <v>13</v>
       </c>
       <c r="H101">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I101">
         <v>280</v>
@@ -6089,7 +6189,8 @@
         <v>13</v>
       </c>
       <c r="H102">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I102">
         <v>280</v>
@@ -6127,7 +6228,8 @@
         <v>13</v>
       </c>
       <c r="H103">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I103">
         <v>280</v>
@@ -6165,7 +6267,8 @@
         <v>13</v>
       </c>
       <c r="H104">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I104">
         <v>280</v>
@@ -6203,7 +6306,8 @@
         <v>13</v>
       </c>
       <c r="H105">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I105">
         <v>280</v>
@@ -6241,7 +6345,8 @@
         <v>13</v>
       </c>
       <c r="H106">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I106">
         <v>280</v>
@@ -6279,7 +6384,8 @@
         <v>13</v>
       </c>
       <c r="H107">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I107">
         <v>280</v>
@@ -6317,7 +6423,8 @@
         <v>13</v>
       </c>
       <c r="H108">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I108">
         <v>210</v>
@@ -6355,7 +6462,8 @@
         <v>13</v>
       </c>
       <c r="H109">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I109">
         <v>210</v>
@@ -6393,7 +6501,8 @@
         <v>13</v>
       </c>
       <c r="H110">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I110">
         <v>210</v>
@@ -6431,7 +6540,8 @@
         <v>13</v>
       </c>
       <c r="H111">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I111">
         <v>210</v>
@@ -6469,7 +6579,8 @@
         <v>13</v>
       </c>
       <c r="H112">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I112">
         <v>210</v>
@@ -6507,7 +6618,8 @@
         <v>13</v>
       </c>
       <c r="H113">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I113">
         <v>210</v>
@@ -6545,7 +6657,8 @@
         <v>13</v>
       </c>
       <c r="H114">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I114">
         <v>210</v>
@@ -6583,7 +6696,8 @@
         <v>13</v>
       </c>
       <c r="H115">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I115">
         <v>210</v>
@@ -6621,7 +6735,8 @@
         <v>13</v>
       </c>
       <c r="H116">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I116">
         <v>210</v>
@@ -6659,7 +6774,8 @@
         <v>13</v>
       </c>
       <c r="H117">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I117">
         <v>210</v>
@@ -6697,7 +6813,8 @@
         <v>13</v>
       </c>
       <c r="H118">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I118">
         <v>210</v>
@@ -6735,7 +6852,8 @@
         <v>13</v>
       </c>
       <c r="H119">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I119">
         <v>210</v>
@@ -6773,7 +6891,8 @@
         <v>13</v>
       </c>
       <c r="H120">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I120">
         <v>210</v>
@@ -6811,7 +6930,8 @@
         <v>13</v>
       </c>
       <c r="H121">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I121">
         <v>210</v>
@@ -6849,7 +6969,8 @@
         <v>13</v>
       </c>
       <c r="H122">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I122">
         <v>210</v>
@@ -6887,7 +7008,8 @@
         <v>13</v>
       </c>
       <c r="H123">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I123">
         <v>210</v>
@@ -6925,7 +7047,8 @@
         <v>13</v>
       </c>
       <c r="H124">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I124">
         <v>210</v>
@@ -6963,7 +7086,8 @@
         <v>13</v>
       </c>
       <c r="H125">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I125">
         <v>210</v>
@@ -7001,7 +7125,8 @@
         <v>13</v>
       </c>
       <c r="H126">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I126">
         <v>210</v>
@@ -7039,7 +7164,8 @@
         <v>13</v>
       </c>
       <c r="H127">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I127">
         <v>210</v>
@@ -7077,7 +7203,8 @@
         <v>13</v>
       </c>
       <c r="H128">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I128">
         <v>210</v>
@@ -7115,7 +7242,8 @@
         <v>13</v>
       </c>
       <c r="H129">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I129">
         <v>210</v>
@@ -7153,7 +7281,8 @@
         <v>13</v>
       </c>
       <c r="H130">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="I130">
         <v>210</v>
@@ -7191,7 +7320,8 @@
         <v>13</v>
       </c>
       <c r="H131">
-        <v>30</v>
+        <f t="shared" ref="H131:H194" si="2">IF(E131&gt;5000000,500,250)</f>
+        <v>250</v>
       </c>
       <c r="I131">
         <v>210</v>
@@ -7229,7 +7359,8 @@
         <v>13</v>
       </c>
       <c r="H132">
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I132">
         <v>210</v>
@@ -7267,7 +7398,8 @@
         <v>13</v>
       </c>
       <c r="H133">
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I133">
         <v>210</v>
@@ -7305,7 +7437,8 @@
         <v>13</v>
       </c>
       <c r="H134">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I134">
         <v>140</v>
@@ -7343,7 +7476,8 @@
         <v>13</v>
       </c>
       <c r="H135">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I135">
         <v>140</v>
@@ -7381,7 +7515,8 @@
         <v>13</v>
       </c>
       <c r="H136">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I136">
         <v>140</v>
@@ -7419,7 +7554,8 @@
         <v>13</v>
       </c>
       <c r="H137">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I137">
         <v>140</v>
@@ -7457,7 +7593,8 @@
         <v>13</v>
       </c>
       <c r="H138">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I138">
         <v>140</v>
@@ -7495,7 +7632,8 @@
         <v>13</v>
       </c>
       <c r="H139">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I139">
         <v>140</v>
@@ -7533,7 +7671,8 @@
         <v>13</v>
       </c>
       <c r="H140">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I140">
         <v>140</v>
@@ -7571,7 +7710,8 @@
         <v>13</v>
       </c>
       <c r="H141">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I141">
         <v>140</v>
@@ -7609,7 +7749,8 @@
         <v>13</v>
       </c>
       <c r="H142">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I142">
         <v>140</v>
@@ -7647,7 +7788,8 @@
         <v>13</v>
       </c>
       <c r="H143">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I143">
         <v>140</v>
@@ -7685,7 +7827,8 @@
         <v>13</v>
       </c>
       <c r="H144">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I144">
         <v>140</v>
@@ -7723,7 +7866,8 @@
         <v>13</v>
       </c>
       <c r="H145">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I145">
         <v>140</v>
@@ -7761,7 +7905,8 @@
         <v>13</v>
       </c>
       <c r="H146">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I146">
         <v>140</v>
@@ -7799,7 +7944,8 @@
         <v>13</v>
       </c>
       <c r="H147">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I147">
         <v>140</v>
@@ -7837,7 +7983,8 @@
         <v>13</v>
       </c>
       <c r="H148">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I148">
         <v>140</v>
@@ -7875,7 +8022,8 @@
         <v>13</v>
       </c>
       <c r="H149">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I149">
         <v>140</v>
@@ -7913,7 +8061,8 @@
         <v>13</v>
       </c>
       <c r="H150">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I150">
         <v>140</v>
@@ -7951,7 +8100,8 @@
         <v>13</v>
       </c>
       <c r="H151">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I151">
         <v>140</v>
@@ -7989,7 +8139,8 @@
         <v>13</v>
       </c>
       <c r="H152">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I152">
         <v>140</v>
@@ -8027,7 +8178,8 @@
         <v>13</v>
       </c>
       <c r="H153">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I153">
         <v>140</v>
@@ -8065,7 +8217,8 @@
         <v>13</v>
       </c>
       <c r="H154">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I154">
         <v>140</v>
@@ -8103,7 +8256,8 @@
         <v>13</v>
       </c>
       <c r="H155">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I155">
         <v>140</v>
@@ -8141,7 +8295,8 @@
         <v>13</v>
       </c>
       <c r="H156">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I156">
         <v>140</v>
@@ -8179,7 +8334,8 @@
         <v>13</v>
       </c>
       <c r="H157">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I157">
         <v>140</v>
@@ -8217,7 +8373,8 @@
         <v>13</v>
       </c>
       <c r="H158">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I158">
         <v>140</v>
@@ -8255,7 +8412,8 @@
         <v>13</v>
       </c>
       <c r="H159">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I159">
         <v>140</v>
@@ -8293,7 +8451,8 @@
         <v>13</v>
       </c>
       <c r="H160">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I160">
         <v>140</v>
@@ -8331,7 +8490,8 @@
         <v>13</v>
       </c>
       <c r="H161">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I161">
         <v>140</v>
@@ -8369,7 +8529,8 @@
         <v>13</v>
       </c>
       <c r="H162">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I162">
         <v>140</v>
@@ -8407,7 +8568,8 @@
         <v>13</v>
       </c>
       <c r="H163">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I163">
         <v>140</v>
@@ -8445,7 +8607,8 @@
         <v>13</v>
       </c>
       <c r="H164">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I164">
         <v>140</v>
@@ -8483,7 +8646,8 @@
         <v>13</v>
       </c>
       <c r="H165">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I165">
         <v>140</v>
@@ -8521,7 +8685,8 @@
         <v>13</v>
       </c>
       <c r="H166">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I166">
         <v>140</v>
@@ -8559,7 +8724,8 @@
         <v>13</v>
       </c>
       <c r="H167">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I167">
         <v>140</v>
@@ -8597,7 +8763,8 @@
         <v>13</v>
       </c>
       <c r="H168">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I168">
         <v>140</v>
@@ -8635,7 +8802,8 @@
         <v>13</v>
       </c>
       <c r="H169">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I169">
         <v>140</v>
@@ -8673,7 +8841,8 @@
         <v>13</v>
       </c>
       <c r="H170">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I170">
         <v>140</v>
@@ -8711,7 +8880,8 @@
         <v>13</v>
       </c>
       <c r="H171">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I171">
         <v>140</v>
@@ -8749,7 +8919,8 @@
         <v>13</v>
       </c>
       <c r="H172">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I172">
         <v>140</v>
@@ -8787,7 +8958,8 @@
         <v>13</v>
       </c>
       <c r="H173">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I173">
         <v>140</v>
@@ -8825,7 +8997,8 @@
         <v>13</v>
       </c>
       <c r="H174">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I174">
         <v>140</v>
@@ -8863,7 +9036,8 @@
         <v>13</v>
       </c>
       <c r="H175">
-        <v>140</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="I175">
         <v>980</v>
@@ -8901,7 +9075,8 @@
         <v>13</v>
       </c>
       <c r="H176">
-        <v>370</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="I176">
         <v>2590</v>
@@ -8939,7 +9114,8 @@
         <v>13</v>
       </c>
       <c r="H177">
-        <v>310</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="I177">
         <v>2170</v>
@@ -8977,7 +9153,8 @@
         <v>13</v>
       </c>
       <c r="H178">
-        <v>290</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="I178">
         <v>2030</v>
@@ -9015,7 +9192,8 @@
         <v>13</v>
       </c>
       <c r="H179">
-        <v>140</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="I179">
         <v>980</v>
@@ -9053,7 +9231,8 @@
         <v>13</v>
       </c>
       <c r="H180">
-        <v>130</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="I180">
         <v>910</v>
@@ -9091,7 +9270,8 @@
         <v>13</v>
       </c>
       <c r="H181">
-        <v>120</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="I181">
         <v>840</v>
@@ -9129,7 +9309,8 @@
         <v>13</v>
       </c>
       <c r="H182">
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="I182">
         <v>700</v>
@@ -9167,7 +9348,8 @@
         <v>13</v>
       </c>
       <c r="H183">
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I183">
         <v>630</v>
@@ -9205,7 +9387,8 @@
         <v>13</v>
       </c>
       <c r="H184">
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I184">
         <v>630</v>
@@ -9243,7 +9426,8 @@
         <v>13</v>
       </c>
       <c r="H185">
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I185">
         <v>490</v>
@@ -9281,7 +9465,8 @@
         <v>13</v>
       </c>
       <c r="H186">
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I186">
         <v>420</v>
@@ -9319,7 +9504,8 @@
         <v>13</v>
       </c>
       <c r="H187">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I187">
         <v>350</v>
@@ -9357,7 +9543,8 @@
         <v>13</v>
       </c>
       <c r="H188">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I188">
         <v>350</v>
@@ -9395,7 +9582,8 @@
         <v>13</v>
       </c>
       <c r="H189">
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I189">
         <v>280</v>
@@ -9433,7 +9621,8 @@
         <v>13</v>
       </c>
       <c r="H190">
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I190">
         <v>280</v>
@@ -9471,7 +9660,8 @@
         <v>13</v>
       </c>
       <c r="H191">
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I191">
         <v>280</v>
@@ -9509,7 +9699,8 @@
         <v>13</v>
       </c>
       <c r="H192">
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I192">
         <v>210</v>
@@ -9547,7 +9738,8 @@
         <v>13</v>
       </c>
       <c r="H193">
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I193">
         <v>210</v>
@@ -9585,7 +9777,8 @@
         <v>13</v>
       </c>
       <c r="H194">
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="I194">
         <v>210</v>
@@ -9623,7 +9816,8 @@
         <v>13</v>
       </c>
       <c r="H195">
-        <v>30</v>
+        <f t="shared" ref="H195:H258" si="3">IF(E195&gt;5000000,500,250)</f>
+        <v>250</v>
       </c>
       <c r="I195">
         <v>210</v>
@@ -9661,7 +9855,8 @@
         <v>13</v>
       </c>
       <c r="H196">
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I196">
         <v>210</v>
@@ -9699,7 +9894,8 @@
         <v>13</v>
       </c>
       <c r="H197">
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I197">
         <v>210</v>
@@ -9737,7 +9933,8 @@
         <v>13</v>
       </c>
       <c r="H198">
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I198">
         <v>210</v>
@@ -9775,7 +9972,8 @@
         <v>13</v>
       </c>
       <c r="H199">
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I199">
         <v>210</v>
@@ -9813,7 +10011,8 @@
         <v>13</v>
       </c>
       <c r="H200">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I200">
         <v>140</v>
@@ -9851,7 +10050,8 @@
         <v>13</v>
       </c>
       <c r="H201">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I201">
         <v>140</v>
@@ -9889,7 +10089,8 @@
         <v>13</v>
       </c>
       <c r="H202">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I202">
         <v>140</v>
@@ -9927,7 +10128,8 @@
         <v>13</v>
       </c>
       <c r="H203">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I203">
         <v>140</v>
@@ -9965,7 +10167,8 @@
         <v>13</v>
       </c>
       <c r="H204">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I204">
         <v>140</v>
@@ -10003,7 +10206,8 @@
         <v>13</v>
       </c>
       <c r="H205">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I205">
         <v>140</v>
@@ -10041,7 +10245,8 @@
         <v>13</v>
       </c>
       <c r="H206">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I206">
         <v>140</v>
@@ -10079,7 +10284,8 @@
         <v>13</v>
       </c>
       <c r="H207">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I207">
         <v>140</v>
@@ -10117,7 +10323,8 @@
         <v>13</v>
       </c>
       <c r="H208">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I208">
         <v>140</v>
@@ -10155,7 +10362,8 @@
         <v>13</v>
       </c>
       <c r="H209">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I209">
         <v>140</v>
@@ -10193,7 +10401,8 @@
         <v>13</v>
       </c>
       <c r="H210">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I210">
         <v>140</v>
@@ -10231,7 +10440,8 @@
         <v>13</v>
       </c>
       <c r="H211">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I211">
         <v>140</v>
@@ -10269,7 +10479,8 @@
         <v>13</v>
       </c>
       <c r="H212">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I212">
         <v>140</v>
@@ -10307,7 +10518,8 @@
         <v>13</v>
       </c>
       <c r="H213">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I213">
         <v>140</v>
@@ -10345,7 +10557,8 @@
         <v>13</v>
       </c>
       <c r="H214">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I214">
         <v>140</v>
@@ -10383,7 +10596,8 @@
         <v>13</v>
       </c>
       <c r="H215">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I215">
         <v>140</v>
@@ -10421,7 +10635,8 @@
         <v>13</v>
       </c>
       <c r="H216">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I216">
         <v>140</v>
@@ -10459,7 +10674,8 @@
         <v>13</v>
       </c>
       <c r="H217">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I217">
         <v>140</v>
@@ -10497,7 +10713,8 @@
         <v>13</v>
       </c>
       <c r="H218">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I218">
         <v>140</v>
@@ -10535,7 +10752,8 @@
         <v>13</v>
       </c>
       <c r="H219">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I219">
         <v>140</v>
@@ -10573,7 +10791,8 @@
         <v>13</v>
       </c>
       <c r="H220">
-        <v>180</v>
+        <f t="shared" si="3"/>
+        <v>500</v>
       </c>
       <c r="I220">
         <v>1260</v>
@@ -10611,7 +10830,8 @@
         <v>13</v>
       </c>
       <c r="H221">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I221">
         <v>350</v>
@@ -10649,7 +10869,8 @@
         <v>13</v>
       </c>
       <c r="H222">
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I222">
         <v>280</v>
@@ -10687,7 +10908,8 @@
         <v>13</v>
       </c>
       <c r="H223">
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I223">
         <v>280</v>
@@ -10725,7 +10947,8 @@
         <v>13</v>
       </c>
       <c r="H224">
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I224">
         <v>280</v>
@@ -10763,7 +10986,8 @@
         <v>13</v>
       </c>
       <c r="H225">
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I225">
         <v>210</v>
@@ -10801,7 +11025,8 @@
         <v>13</v>
       </c>
       <c r="H226">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I226">
         <v>140</v>
@@ -10839,7 +11064,8 @@
         <v>13</v>
       </c>
       <c r="H227">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I227">
         <v>140</v>
@@ -10877,7 +11103,8 @@
         <v>13</v>
       </c>
       <c r="H228">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I228">
         <v>140</v>
@@ -10915,7 +11142,8 @@
         <v>13</v>
       </c>
       <c r="H229">
-        <v>710</v>
+        <f t="shared" si="3"/>
+        <v>500</v>
       </c>
       <c r="I229">
         <v>4970</v>
@@ -10953,7 +11181,8 @@
         <v>13</v>
       </c>
       <c r="H230">
-        <v>220</v>
+        <f t="shared" si="3"/>
+        <v>500</v>
       </c>
       <c r="I230">
         <v>1540</v>
@@ -10991,7 +11220,8 @@
         <v>13</v>
       </c>
       <c r="H231">
-        <v>70</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I231">
         <v>490</v>
@@ -11029,7 +11259,8 @@
         <v>13</v>
       </c>
       <c r="H232">
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I232">
         <v>420</v>
@@ -11067,7 +11298,8 @@
         <v>13</v>
       </c>
       <c r="H233">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I233">
         <v>350</v>
@@ -11105,7 +11337,8 @@
         <v>13</v>
       </c>
       <c r="H234">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I234">
         <v>350</v>
@@ -11143,7 +11376,8 @@
         <v>13</v>
       </c>
       <c r="H235">
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I235">
         <v>280</v>
@@ -11181,7 +11415,8 @@
         <v>13</v>
       </c>
       <c r="H236">
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I236">
         <v>280</v>
@@ -11219,7 +11454,8 @@
         <v>13</v>
       </c>
       <c r="H237">
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I237">
         <v>210</v>
@@ -11257,7 +11493,8 @@
         <v>13</v>
       </c>
       <c r="H238">
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I238">
         <v>210</v>
@@ -11295,7 +11532,8 @@
         <v>13</v>
       </c>
       <c r="H239">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I239">
         <v>140</v>
@@ -11333,7 +11571,8 @@
         <v>13</v>
       </c>
       <c r="H240">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I240">
         <v>140</v>
@@ -11371,7 +11610,8 @@
         <v>13</v>
       </c>
       <c r="H241">
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I241">
         <v>420</v>
@@ -11409,7 +11649,8 @@
         <v>13</v>
       </c>
       <c r="H242">
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I242">
         <v>420</v>
@@ -11447,7 +11688,8 @@
         <v>13</v>
       </c>
       <c r="H243">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I243">
         <v>140</v>
@@ -11485,7 +11727,8 @@
         <v>13</v>
       </c>
       <c r="H244">
-        <v>190</v>
+        <f t="shared" si="3"/>
+        <v>500</v>
       </c>
       <c r="I244">
         <v>1330</v>
@@ -11523,7 +11766,8 @@
         <v>13</v>
       </c>
       <c r="H245">
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I245">
         <v>420</v>
@@ -11561,7 +11805,8 @@
         <v>13</v>
       </c>
       <c r="H246">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I246">
         <v>350</v>
@@ -11599,7 +11844,8 @@
         <v>13</v>
       </c>
       <c r="H247">
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I247">
         <v>280</v>
@@ -11637,7 +11883,8 @@
         <v>13</v>
       </c>
       <c r="H248">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I248">
         <v>140</v>
@@ -11675,7 +11922,8 @@
         <v>13</v>
       </c>
       <c r="H249">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I249">
         <v>140</v>
@@ -11713,7 +11961,8 @@
         <v>13</v>
       </c>
       <c r="H250">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I250">
         <v>140</v>
@@ -11751,7 +12000,8 @@
         <v>13</v>
       </c>
       <c r="H251">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I251">
         <v>140</v>
@@ -11789,7 +12039,8 @@
         <v>13</v>
       </c>
       <c r="H252">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I252">
         <v>140</v>
@@ -11827,7 +12078,8 @@
         <v>13</v>
       </c>
       <c r="H253">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I253">
         <v>350</v>
@@ -11865,7 +12117,8 @@
         <v>13</v>
       </c>
       <c r="H254">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I254">
         <v>140</v>
@@ -11903,7 +12156,8 @@
         <v>13</v>
       </c>
       <c r="H255">
-        <v>240</v>
+        <f t="shared" si="3"/>
+        <v>500</v>
       </c>
       <c r="I255">
         <v>1680</v>
@@ -11941,7 +12195,8 @@
         <v>13</v>
       </c>
       <c r="H256">
-        <v>130</v>
+        <f t="shared" si="3"/>
+        <v>500</v>
       </c>
       <c r="I256">
         <v>910</v>
@@ -11979,7 +12234,8 @@
         <v>13</v>
       </c>
       <c r="H257">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I257">
         <v>350</v>
@@ -12017,7 +12273,8 @@
         <v>13</v>
       </c>
       <c r="H258">
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="I258">
         <v>210</v>
@@ -12055,7 +12312,8 @@
         <v>13</v>
       </c>
       <c r="H259">
-        <v>30</v>
+        <f t="shared" ref="H259:H322" si="4">IF(E259&gt;5000000,500,250)</f>
+        <v>250</v>
       </c>
       <c r="I259">
         <v>210</v>
@@ -12093,7 +12351,8 @@
         <v>13</v>
       </c>
       <c r="H260">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I260">
         <v>210</v>
@@ -12131,7 +12390,8 @@
         <v>13</v>
       </c>
       <c r="H261">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I261">
         <v>210</v>
@@ -12169,7 +12429,8 @@
         <v>13</v>
       </c>
       <c r="H262">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I262">
         <v>140</v>
@@ -12207,7 +12468,8 @@
         <v>13</v>
       </c>
       <c r="H263">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I263">
         <v>140</v>
@@ -12245,7 +12507,8 @@
         <v>13</v>
       </c>
       <c r="H264">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I264">
         <v>140</v>
@@ -12283,7 +12546,8 @@
         <v>13</v>
       </c>
       <c r="H265">
-        <v>220</v>
+        <f t="shared" si="4"/>
+        <v>500</v>
       </c>
       <c r="I265">
         <v>1540</v>
@@ -12321,7 +12585,8 @@
         <v>13</v>
       </c>
       <c r="H266">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I266">
         <v>350</v>
@@ -12359,7 +12624,8 @@
         <v>13</v>
       </c>
       <c r="H267">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I267">
         <v>140</v>
@@ -12397,7 +12663,8 @@
         <v>13</v>
       </c>
       <c r="H268">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I268">
         <v>140</v>
@@ -12435,7 +12702,8 @@
         <v>13</v>
       </c>
       <c r="H269">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>500</v>
       </c>
       <c r="I269">
         <v>700</v>
@@ -12473,7 +12741,8 @@
         <v>13</v>
       </c>
       <c r="H270">
-        <v>130</v>
+        <f t="shared" si="4"/>
+        <v>500</v>
       </c>
       <c r="I270">
         <v>910</v>
@@ -12511,7 +12780,8 @@
         <v>13</v>
       </c>
       <c r="H271">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I271">
         <v>350</v>
@@ -12549,7 +12819,8 @@
         <v>13</v>
       </c>
       <c r="H272">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I272">
         <v>350</v>
@@ -12587,7 +12858,8 @@
         <v>13</v>
       </c>
       <c r="H273">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I273">
         <v>210</v>
@@ -12625,7 +12897,8 @@
         <v>13</v>
       </c>
       <c r="H274">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I274">
         <v>210</v>
@@ -12663,7 +12936,8 @@
         <v>13</v>
       </c>
       <c r="H275">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I275">
         <v>140</v>
@@ -12701,7 +12975,8 @@
         <v>13</v>
       </c>
       <c r="H276">
-        <v>130</v>
+        <f t="shared" si="4"/>
+        <v>500</v>
       </c>
       <c r="I276">
         <v>910</v>
@@ -12739,7 +13014,8 @@
         <v>13</v>
       </c>
       <c r="H277">
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I277">
         <v>280</v>
@@ -12777,7 +13053,8 @@
         <v>13</v>
       </c>
       <c r="H278">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>500</v>
       </c>
       <c r="I278">
         <v>700</v>
@@ -12815,7 +13092,8 @@
         <v>13</v>
       </c>
       <c r="H279">
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I279">
         <v>560</v>
@@ -12853,7 +13131,8 @@
         <v>13</v>
       </c>
       <c r="H280">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I280">
         <v>210</v>
@@ -12891,7 +13170,8 @@
         <v>13</v>
       </c>
       <c r="H281">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I281">
         <v>140</v>
@@ -12929,7 +13209,8 @@
         <v>13</v>
       </c>
       <c r="H282">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I282">
         <v>140</v>
@@ -12967,7 +13248,8 @@
         <v>110</v>
       </c>
       <c r="H283">
-        <v>90</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I283">
         <v>630</v>
@@ -13005,7 +13287,8 @@
         <v>110</v>
       </c>
       <c r="H284">
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I284">
         <v>560</v>
@@ -13043,7 +13326,8 @@
         <v>110</v>
       </c>
       <c r="H285">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I285">
         <v>210</v>
@@ -13081,7 +13365,8 @@
         <v>110</v>
       </c>
       <c r="H286">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I286">
         <v>210</v>
@@ -13119,7 +13404,8 @@
         <v>110</v>
       </c>
       <c r="H287">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I287">
         <v>140</v>
@@ -13157,7 +13443,8 @@
         <v>110</v>
       </c>
       <c r="H288">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I288">
         <v>140</v>
@@ -13195,7 +13482,8 @@
         <v>110</v>
       </c>
       <c r="H289">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I289">
         <v>140</v>
@@ -13233,7 +13521,8 @@
         <v>45</v>
       </c>
       <c r="H290">
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I290">
         <v>280</v>
@@ -13271,7 +13560,8 @@
         <v>45</v>
       </c>
       <c r="H291">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I291">
         <v>210</v>
@@ -13309,7 +13599,8 @@
         <v>45</v>
       </c>
       <c r="H292">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I292">
         <v>210</v>
@@ -13347,7 +13638,8 @@
         <v>45</v>
       </c>
       <c r="H293">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I293">
         <v>140</v>
@@ -13385,7 +13677,8 @@
         <v>45</v>
       </c>
       <c r="H294">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I294">
         <v>140</v>
@@ -13423,7 +13716,8 @@
         <v>45</v>
       </c>
       <c r="H295">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I295">
         <v>140</v>
@@ -13461,7 +13755,8 @@
         <v>45</v>
       </c>
       <c r="H296">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I296">
         <v>140</v>
@@ -13499,7 +13794,8 @@
         <v>45</v>
       </c>
       <c r="H297">
-        <v>190</v>
+        <f t="shared" si="4"/>
+        <v>500</v>
       </c>
       <c r="I297">
         <v>1330</v>
@@ -13537,7 +13833,8 @@
         <v>45</v>
       </c>
       <c r="H298">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I298">
         <v>140</v>
@@ -13575,7 +13872,8 @@
         <v>45</v>
       </c>
       <c r="H299">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I299">
         <v>140</v>
@@ -13613,7 +13911,8 @@
         <v>45</v>
       </c>
       <c r="H300">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I300">
         <v>140</v>
@@ -13651,7 +13950,8 @@
         <v>45</v>
       </c>
       <c r="H301">
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I301">
         <v>420</v>
@@ -13689,7 +13989,8 @@
         <v>45</v>
       </c>
       <c r="H302">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I302">
         <v>350</v>
@@ -13727,7 +14028,8 @@
         <v>45</v>
       </c>
       <c r="H303">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I303">
         <v>350</v>
@@ -13765,7 +14067,8 @@
         <v>45</v>
       </c>
       <c r="H304">
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I304">
         <v>280</v>
@@ -13803,7 +14106,8 @@
         <v>45</v>
       </c>
       <c r="H305">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I305">
         <v>210</v>
@@ -13841,7 +14145,8 @@
         <v>45</v>
       </c>
       <c r="H306">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I306">
         <v>210</v>
@@ -13879,7 +14184,8 @@
         <v>45</v>
       </c>
       <c r="H307">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I307">
         <v>140</v>
@@ -13917,7 +14223,8 @@
         <v>45</v>
       </c>
       <c r="H308">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I308">
         <v>140</v>
@@ -13955,7 +14262,8 @@
         <v>45</v>
       </c>
       <c r="H309">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I309">
         <v>140</v>
@@ -13993,7 +14301,8 @@
         <v>45</v>
       </c>
       <c r="H310">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I310">
         <v>140</v>
@@ -14031,7 +14340,8 @@
         <v>45</v>
       </c>
       <c r="H311">
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I311">
         <v>420</v>
@@ -14069,7 +14379,8 @@
         <v>45</v>
       </c>
       <c r="H312">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I312">
         <v>210</v>
@@ -14107,7 +14418,8 @@
         <v>45</v>
       </c>
       <c r="H313">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I313">
         <v>140</v>
@@ -14145,7 +14457,8 @@
         <v>45</v>
       </c>
       <c r="H314">
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I314">
         <v>420</v>
@@ -14183,7 +14496,8 @@
         <v>45</v>
       </c>
       <c r="H315">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I315">
         <v>350</v>
@@ -14221,7 +14535,8 @@
         <v>45</v>
       </c>
       <c r="H316">
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I316">
         <v>280</v>
@@ -14259,7 +14574,8 @@
         <v>45</v>
       </c>
       <c r="H317">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I317">
         <v>210</v>
@@ -14297,7 +14613,8 @@
         <v>45</v>
       </c>
       <c r="H318">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I318">
         <v>210</v>
@@ -14335,7 +14652,8 @@
         <v>45</v>
       </c>
       <c r="H319">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I319">
         <v>140</v>
@@ -14373,7 +14691,8 @@
         <v>45</v>
       </c>
       <c r="H320">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I320">
         <v>140</v>
@@ -14411,7 +14730,8 @@
         <v>45</v>
       </c>
       <c r="H321">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I321">
         <v>140</v>
@@ -14449,7 +14769,8 @@
         <v>45</v>
       </c>
       <c r="H322">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="I322">
         <v>350</v>
@@ -14487,7 +14808,8 @@
         <v>45</v>
       </c>
       <c r="H323">
-        <v>30</v>
+        <f t="shared" ref="H323:H386" si="5">IF(E323&gt;5000000,500,250)</f>
+        <v>250</v>
       </c>
       <c r="I323">
         <v>210</v>
@@ -14525,7 +14847,8 @@
         <v>45</v>
       </c>
       <c r="H324">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I324">
         <v>350</v>
@@ -14563,7 +14886,8 @@
         <v>45</v>
       </c>
       <c r="H325">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I325">
         <v>140</v>
@@ -14601,7 +14925,8 @@
         <v>45</v>
       </c>
       <c r="H326">
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I326">
         <v>210</v>
@@ -14639,7 +14964,8 @@
         <v>45</v>
       </c>
       <c r="H327">
-        <v>200</v>
+        <f t="shared" si="5"/>
+        <v>500</v>
       </c>
       <c r="I327">
         <v>1400</v>
@@ -14677,7 +15003,8 @@
         <v>45</v>
       </c>
       <c r="H328">
-        <v>90</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I328">
         <v>630</v>
@@ -14715,7 +15042,8 @@
         <v>45</v>
       </c>
       <c r="H329">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I329">
         <v>140</v>
@@ -14753,7 +15081,8 @@
         <v>45</v>
       </c>
       <c r="H330">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I330">
         <v>140</v>
@@ -14791,7 +15120,8 @@
         <v>45</v>
       </c>
       <c r="H331">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I331">
         <v>140</v>
@@ -14829,7 +15159,8 @@
         <v>45</v>
       </c>
       <c r="H332">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I332">
         <v>140</v>
@@ -14867,7 +15198,8 @@
         <v>45</v>
       </c>
       <c r="H333">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I333">
         <v>140</v>
@@ -14905,7 +15237,8 @@
         <v>45</v>
       </c>
       <c r="H334">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I334">
         <v>140</v>
@@ -14943,7 +15276,8 @@
         <v>45</v>
       </c>
       <c r="H335">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I335">
         <v>140</v>
@@ -14981,7 +15315,8 @@
         <v>45</v>
       </c>
       <c r="H336">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I336">
         <v>140</v>
@@ -15019,7 +15354,8 @@
         <v>45</v>
       </c>
       <c r="H337">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I337">
         <v>140</v>
@@ -15057,7 +15393,8 @@
         <v>45</v>
       </c>
       <c r="H338">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I338">
         <v>140</v>
@@ -15095,7 +15432,8 @@
         <v>45</v>
       </c>
       <c r="H339">
-        <v>110</v>
+        <f t="shared" si="5"/>
+        <v>500</v>
       </c>
       <c r="I339">
         <v>770</v>
@@ -15133,7 +15471,8 @@
         <v>45</v>
       </c>
       <c r="H340">
-        <v>90</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I340">
         <v>630</v>
@@ -15171,7 +15510,8 @@
         <v>45</v>
       </c>
       <c r="H341">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I341">
         <v>140</v>
@@ -15209,7 +15549,8 @@
         <v>45</v>
       </c>
       <c r="H342">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I342">
         <v>140</v>
@@ -15247,7 +15588,8 @@
         <v>45</v>
       </c>
       <c r="H343">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I343">
         <v>140</v>
@@ -15285,7 +15627,8 @@
         <v>45</v>
       </c>
       <c r="H344">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I344">
         <v>140</v>
@@ -15323,7 +15666,8 @@
         <v>45</v>
       </c>
       <c r="H345">
-        <v>200</v>
+        <f t="shared" si="5"/>
+        <v>500</v>
       </c>
       <c r="I345">
         <v>1400</v>
@@ -15361,7 +15705,8 @@
         <v>45</v>
       </c>
       <c r="H346">
-        <v>70</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I346">
         <v>490</v>
@@ -15399,7 +15744,8 @@
         <v>45</v>
       </c>
       <c r="H347">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I347">
         <v>350</v>
@@ -15437,7 +15783,8 @@
         <v>45</v>
       </c>
       <c r="H348">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I348">
         <v>140</v>
@@ -15475,7 +15822,8 @@
         <v>45</v>
       </c>
       <c r="H349">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I349">
         <v>140</v>
@@ -15513,7 +15861,8 @@
         <v>45</v>
       </c>
       <c r="H350">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I350">
         <v>140</v>
@@ -15551,7 +15900,8 @@
         <v>45</v>
       </c>
       <c r="H351">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I351">
         <v>350</v>
@@ -15589,7 +15939,8 @@
         <v>45</v>
       </c>
       <c r="H352">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I352">
         <v>140</v>
@@ -15627,7 +15978,8 @@
         <v>45</v>
       </c>
       <c r="H353">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I353">
         <v>140</v>
@@ -15665,7 +16017,8 @@
         <v>45</v>
       </c>
       <c r="H354">
-        <v>170</v>
+        <f t="shared" si="5"/>
+        <v>500</v>
       </c>
       <c r="I354">
         <v>1190</v>
@@ -15703,7 +16056,8 @@
         <v>45</v>
       </c>
       <c r="H355">
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I355">
         <v>280</v>
@@ -15741,7 +16095,8 @@
         <v>45</v>
       </c>
       <c r="H356">
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I356">
         <v>280</v>
@@ -15779,7 +16134,8 @@
         <v>45</v>
       </c>
       <c r="H357">
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I357">
         <v>210</v>
@@ -15817,7 +16173,8 @@
         <v>45</v>
       </c>
       <c r="H358">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I358">
         <v>140</v>
@@ -15855,7 +16212,8 @@
         <v>45</v>
       </c>
       <c r="H359">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I359">
         <v>140</v>
@@ -15893,7 +16251,8 @@
         <v>64</v>
       </c>
       <c r="H360">
-        <v>150</v>
+        <f t="shared" si="5"/>
+        <v>500</v>
       </c>
       <c r="I360">
         <v>1050</v>
@@ -15931,7 +16290,8 @@
         <v>64</v>
       </c>
       <c r="H361">
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I361">
         <v>280</v>
@@ -15969,7 +16329,8 @@
         <v>64</v>
       </c>
       <c r="H362">
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I362">
         <v>210</v>
@@ -16007,7 +16368,8 @@
         <v>64</v>
       </c>
       <c r="H363">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I363">
         <v>140</v>
@@ -16045,7 +16407,8 @@
         <v>64</v>
       </c>
       <c r="H364">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I364">
         <v>140</v>
@@ -16083,7 +16446,8 @@
         <v>64</v>
       </c>
       <c r="H365">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I365">
         <v>140</v>
@@ -16121,7 +16485,8 @@
         <v>64</v>
       </c>
       <c r="H366">
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>500</v>
       </c>
       <c r="I366">
         <v>700</v>
@@ -16159,7 +16524,8 @@
         <v>64</v>
       </c>
       <c r="H367">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I367">
         <v>140</v>
@@ -16197,7 +16563,8 @@
         <v>64</v>
       </c>
       <c r="H368">
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I368">
         <v>420</v>
@@ -16235,7 +16602,8 @@
         <v>64</v>
       </c>
       <c r="H369">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I369">
         <v>140</v>
@@ -16273,7 +16641,8 @@
         <v>64</v>
       </c>
       <c r="H370">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I370">
         <v>140</v>
@@ -16311,7 +16680,8 @@
         <v>64</v>
       </c>
       <c r="H371">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I371">
         <v>140</v>
@@ -16349,7 +16719,8 @@
         <v>64</v>
       </c>
       <c r="H372">
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I372">
         <v>280</v>
@@ -16387,7 +16758,8 @@
         <v>64</v>
       </c>
       <c r="H373">
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I373">
         <v>210</v>
@@ -16425,7 +16797,8 @@
         <v>64</v>
       </c>
       <c r="H374">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I374">
         <v>140</v>
@@ -16463,7 +16836,8 @@
         <v>64</v>
       </c>
       <c r="H375">
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I375">
         <v>560</v>
@@ -16501,7 +16875,8 @@
         <v>64</v>
       </c>
       <c r="H376">
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I376">
         <v>420</v>
@@ -16539,7 +16914,8 @@
         <v>64</v>
       </c>
       <c r="H377">
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I377">
         <v>280</v>
@@ -16577,7 +16953,8 @@
         <v>64</v>
       </c>
       <c r="H378">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I378">
         <v>140</v>
@@ -16615,7 +16992,8 @@
         <v>64</v>
       </c>
       <c r="H379">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I379">
         <v>140</v>
@@ -16653,7 +17031,8 @@
         <v>64</v>
       </c>
       <c r="H380">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I380">
         <v>350</v>
@@ -16691,7 +17070,8 @@
         <v>64</v>
       </c>
       <c r="H381">
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I381">
         <v>280</v>
@@ -16729,7 +17109,8 @@
         <v>64</v>
       </c>
       <c r="H382">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I382">
         <v>140</v>
@@ -16767,7 +17148,8 @@
         <v>64</v>
       </c>
       <c r="H383">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I383">
         <v>140</v>
@@ -16805,7 +17187,8 @@
         <v>64</v>
       </c>
       <c r="H384">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I384">
         <v>140</v>
@@ -16843,7 +17226,8 @@
         <v>64</v>
       </c>
       <c r="H385">
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I385">
         <v>280</v>
@@ -16881,7 +17265,8 @@
         <v>64</v>
       </c>
       <c r="H386">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="I386">
         <v>140</v>
@@ -16919,7 +17304,8 @@
         <v>16</v>
       </c>
       <c r="H387">
-        <v>100</v>
+        <f t="shared" ref="H387:H450" si="6">IF(E387&gt;5000000,500,250)</f>
+        <v>500</v>
       </c>
       <c r="I387">
         <v>700</v>
@@ -16957,7 +17343,8 @@
         <v>16</v>
       </c>
       <c r="H388">
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I388">
         <v>490</v>
@@ -16995,7 +17382,8 @@
         <v>16</v>
       </c>
       <c r="H389">
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I389">
         <v>280</v>
@@ -17033,7 +17421,8 @@
         <v>16</v>
       </c>
       <c r="H390">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I390">
         <v>140</v>
@@ -17071,7 +17460,8 @@
         <v>16</v>
       </c>
       <c r="H391">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I391">
         <v>140</v>
@@ -17109,7 +17499,8 @@
         <v>16</v>
       </c>
       <c r="H392">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I392">
         <v>140</v>
@@ -17147,7 +17538,8 @@
         <v>16</v>
       </c>
       <c r="H393">
-        <v>380</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="I393">
         <v>2660</v>
@@ -17185,7 +17577,8 @@
         <v>16</v>
       </c>
       <c r="H394">
-        <v>250</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="I394">
         <v>1750</v>
@@ -17223,7 +17616,8 @@
         <v>16</v>
       </c>
       <c r="H395">
-        <v>170</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="I395">
         <v>1190</v>
@@ -17261,7 +17655,8 @@
         <v>16</v>
       </c>
       <c r="H396">
-        <v>120</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="I396">
         <v>840</v>
@@ -17299,7 +17694,8 @@
         <v>16</v>
       </c>
       <c r="H397">
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="I397">
         <v>770</v>
@@ -17337,7 +17733,8 @@
         <v>16</v>
       </c>
       <c r="H398">
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="I398">
         <v>770</v>
@@ -17375,7 +17772,8 @@
         <v>16</v>
       </c>
       <c r="H399">
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="I399">
         <v>700</v>
@@ -17413,7 +17811,8 @@
         <v>16</v>
       </c>
       <c r="H400">
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="I400">
         <v>700</v>
@@ -17451,7 +17850,8 @@
         <v>16</v>
       </c>
       <c r="H401">
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="I401">
         <v>700</v>
@@ -17489,7 +17889,8 @@
         <v>16</v>
       </c>
       <c r="H402">
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I402">
         <v>630</v>
@@ -17527,7 +17928,8 @@
         <v>16</v>
       </c>
       <c r="H403">
-        <v>80</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I403">
         <v>560</v>
@@ -17565,7 +17967,8 @@
         <v>16</v>
       </c>
       <c r="H404">
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I404">
         <v>490</v>
@@ -17603,7 +18006,8 @@
         <v>16</v>
       </c>
       <c r="H405">
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I405">
         <v>490</v>
@@ -17641,7 +18045,8 @@
         <v>16</v>
       </c>
       <c r="H406">
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I406">
         <v>490</v>
@@ -17679,7 +18084,8 @@
         <v>16</v>
       </c>
       <c r="H407">
-        <v>60</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I407">
         <v>420</v>
@@ -17717,7 +18123,8 @@
         <v>16</v>
       </c>
       <c r="H408">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I408">
         <v>350</v>
@@ -17755,7 +18162,8 @@
         <v>16</v>
       </c>
       <c r="H409">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I409">
         <v>350</v>
@@ -17793,7 +18201,8 @@
         <v>16</v>
       </c>
       <c r="H410">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I410">
         <v>350</v>
@@ -17831,7 +18240,8 @@
         <v>16</v>
       </c>
       <c r="H411">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I411">
         <v>350</v>
@@ -17869,7 +18279,8 @@
         <v>16</v>
       </c>
       <c r="H412">
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I412">
         <v>280</v>
@@ -17907,7 +18318,8 @@
         <v>16</v>
       </c>
       <c r="H413">
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I413">
         <v>280</v>
@@ -17945,7 +18357,8 @@
         <v>16</v>
       </c>
       <c r="H414">
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I414">
         <v>280</v>
@@ -17983,7 +18396,8 @@
         <v>16</v>
       </c>
       <c r="H415">
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I415">
         <v>280</v>
@@ -18021,7 +18435,8 @@
         <v>16</v>
       </c>
       <c r="H416">
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I416">
         <v>280</v>
@@ -18059,7 +18474,8 @@
         <v>16</v>
       </c>
       <c r="H417">
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I417">
         <v>280</v>
@@ -18097,7 +18513,8 @@
         <v>16</v>
       </c>
       <c r="H418">
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I418">
         <v>210</v>
@@ -18135,7 +18552,8 @@
         <v>16</v>
       </c>
       <c r="H419">
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I419">
         <v>210</v>
@@ -18173,7 +18591,8 @@
         <v>16</v>
       </c>
       <c r="H420">
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I420">
         <v>210</v>
@@ -18211,7 +18630,8 @@
         <v>16</v>
       </c>
       <c r="H421">
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I421">
         <v>210</v>
@@ -18249,7 +18669,8 @@
         <v>16</v>
       </c>
       <c r="H422">
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I422">
         <v>210</v>
@@ -18287,7 +18708,8 @@
         <v>16</v>
       </c>
       <c r="H423">
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I423">
         <v>210</v>
@@ -18325,7 +18747,8 @@
         <v>16</v>
       </c>
       <c r="H424">
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I424">
         <v>210</v>
@@ -18363,7 +18786,8 @@
         <v>16</v>
       </c>
       <c r="H425">
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I425">
         <v>210</v>
@@ -18401,7 +18825,8 @@
         <v>16</v>
       </c>
       <c r="H426">
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I426">
         <v>210</v>
@@ -18439,7 +18864,8 @@
         <v>16</v>
       </c>
       <c r="H427">
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I427">
         <v>210</v>
@@ -18477,7 +18903,8 @@
         <v>16</v>
       </c>
       <c r="H428">
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I428">
         <v>210</v>
@@ -18515,7 +18942,8 @@
         <v>16</v>
       </c>
       <c r="H429">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I429">
         <v>140</v>
@@ -18553,7 +18981,8 @@
         <v>16</v>
       </c>
       <c r="H430">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I430">
         <v>140</v>
@@ -18591,7 +19020,8 @@
         <v>16</v>
       </c>
       <c r="H431">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I431">
         <v>140</v>
@@ -18629,7 +19059,8 @@
         <v>16</v>
       </c>
       <c r="H432">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I432">
         <v>140</v>
@@ -18667,7 +19098,8 @@
         <v>16</v>
       </c>
       <c r="H433">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I433">
         <v>140</v>
@@ -18705,7 +19137,8 @@
         <v>16</v>
       </c>
       <c r="H434">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I434">
         <v>140</v>
@@ -18743,7 +19176,8 @@
         <v>16</v>
       </c>
       <c r="H435">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I435">
         <v>140</v>
@@ -18781,7 +19215,8 @@
         <v>16</v>
       </c>
       <c r="H436">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I436">
         <v>140</v>
@@ -18819,7 +19254,8 @@
         <v>16</v>
       </c>
       <c r="H437">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I437">
         <v>140</v>
@@ -18857,7 +19293,8 @@
         <v>16</v>
       </c>
       <c r="H438">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I438">
         <v>140</v>
@@ -18895,7 +19332,8 @@
         <v>16</v>
       </c>
       <c r="H439">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I439">
         <v>140</v>
@@ -18933,7 +19371,8 @@
         <v>16</v>
       </c>
       <c r="H440">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I440">
         <v>140</v>
@@ -18971,7 +19410,8 @@
         <v>16</v>
       </c>
       <c r="H441">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I441">
         <v>140</v>
@@ -19009,7 +19449,8 @@
         <v>16</v>
       </c>
       <c r="H442">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I442">
         <v>140</v>
@@ -19047,7 +19488,8 @@
         <v>19</v>
       </c>
       <c r="H443">
-        <v>250</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="I443">
         <v>1750</v>
@@ -19085,7 +19527,8 @@
         <v>19</v>
       </c>
       <c r="H444">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I444">
         <v>140</v>
@@ -19123,7 +19566,8 @@
         <v>19</v>
       </c>
       <c r="H445">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I445">
         <v>140</v>
@@ -19161,7 +19605,8 @@
         <v>19</v>
       </c>
       <c r="H446">
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I446">
         <v>280</v>
@@ -19199,7 +19644,8 @@
         <v>19</v>
       </c>
       <c r="H447">
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I447">
         <v>210</v>
@@ -19237,7 +19683,8 @@
         <v>19</v>
       </c>
       <c r="H448">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="I448">
         <v>140</v>
@@ -19275,7 +19722,8 @@
         <v>19</v>
       </c>
       <c r="H449">
-        <v>370</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="I449">
         <v>2590</v>
@@ -19313,7 +19761,8 @@
         <v>19</v>
       </c>
       <c r="H450">
-        <v>230</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="I450">
         <v>1610</v>
@@ -19351,7 +19800,8 @@
         <v>19</v>
       </c>
       <c r="H451">
-        <v>110</v>
+        <f t="shared" ref="H451:H504" si="7">IF(E451&gt;5000000,500,250)</f>
+        <v>500</v>
       </c>
       <c r="I451">
         <v>770</v>
@@ -19389,7 +19839,8 @@
         <v>19</v>
       </c>
       <c r="H452">
-        <v>70</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I452">
         <v>490</v>
@@ -19427,7 +19878,8 @@
         <v>19</v>
       </c>
       <c r="H453">
-        <v>70</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I453">
         <v>490</v>
@@ -19465,7 +19917,8 @@
         <v>19</v>
       </c>
       <c r="H454">
-        <v>70</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I454">
         <v>490</v>
@@ -19503,7 +19956,8 @@
         <v>19</v>
       </c>
       <c r="H455">
-        <v>70</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I455">
         <v>490</v>
@@ -19541,7 +19995,8 @@
         <v>19</v>
       </c>
       <c r="H456">
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I456">
         <v>420</v>
@@ -19579,7 +20034,8 @@
         <v>19</v>
       </c>
       <c r="H457">
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I457">
         <v>420</v>
@@ -19617,7 +20073,8 @@
         <v>19</v>
       </c>
       <c r="H458">
-        <v>50</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I458">
         <v>350</v>
@@ -19655,7 +20112,8 @@
         <v>19</v>
       </c>
       <c r="H459">
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I459">
         <v>280</v>
@@ -19693,7 +20151,8 @@
         <v>19</v>
       </c>
       <c r="H460">
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I460">
         <v>280</v>
@@ -19731,7 +20190,8 @@
         <v>19</v>
       </c>
       <c r="H461">
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I461">
         <v>210</v>
@@ -19769,7 +20229,8 @@
         <v>19</v>
       </c>
       <c r="H462">
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I462">
         <v>210</v>
@@ -19807,7 +20268,8 @@
         <v>19</v>
       </c>
       <c r="H463">
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I463">
         <v>210</v>
@@ -19845,7 +20307,8 @@
         <v>19</v>
       </c>
       <c r="H464">
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I464">
         <v>210</v>
@@ -19883,7 +20346,8 @@
         <v>19</v>
       </c>
       <c r="H465">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I465">
         <v>140</v>
@@ -19921,7 +20385,8 @@
         <v>19</v>
       </c>
       <c r="H466">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I466">
         <v>140</v>
@@ -19959,7 +20424,8 @@
         <v>19</v>
       </c>
       <c r="H467">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I467">
         <v>140</v>
@@ -19997,7 +20463,8 @@
         <v>19</v>
       </c>
       <c r="H468">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I468">
         <v>140</v>
@@ -20035,7 +20502,8 @@
         <v>19</v>
       </c>
       <c r="H469">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I469">
         <v>140</v>
@@ -20073,7 +20541,8 @@
         <v>19</v>
       </c>
       <c r="H470">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I470">
         <v>140</v>
@@ -20111,7 +20580,8 @@
         <v>19</v>
       </c>
       <c r="H471">
-        <v>110</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="I471">
         <v>770</v>
@@ -20149,7 +20619,8 @@
         <v>19</v>
       </c>
       <c r="H472">
-        <v>150</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="I472">
         <v>1050</v>
@@ -20187,7 +20658,8 @@
         <v>19</v>
       </c>
       <c r="H473">
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I473">
         <v>420</v>
@@ -20225,7 +20697,8 @@
         <v>19</v>
       </c>
       <c r="H474">
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I474">
         <v>280</v>
@@ -20263,7 +20736,8 @@
         <v>19</v>
       </c>
       <c r="H475">
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I475">
         <v>210</v>
@@ -20301,7 +20775,8 @@
         <v>19</v>
       </c>
       <c r="H476">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I476">
         <v>140</v>
@@ -20339,7 +20814,8 @@
         <v>19</v>
       </c>
       <c r="H477">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I477">
         <v>140</v>
@@ -20377,7 +20853,8 @@
         <v>19</v>
       </c>
       <c r="H478">
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I478">
         <v>280</v>
@@ -20415,7 +20892,8 @@
         <v>19</v>
       </c>
       <c r="H479">
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I479">
         <v>280</v>
@@ -20453,7 +20931,8 @@
         <v>19</v>
       </c>
       <c r="H480">
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I480">
         <v>210</v>
@@ -20491,7 +20970,8 @@
         <v>19</v>
       </c>
       <c r="H481">
-        <v>50</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I481">
         <v>350</v>
@@ -20529,7 +21009,8 @@
         <v>19</v>
       </c>
       <c r="H482">
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I482">
         <v>210</v>
@@ -20567,7 +21048,8 @@
         <v>19</v>
       </c>
       <c r="H483">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I483">
         <v>140</v>
@@ -20605,7 +21087,8 @@
         <v>19</v>
       </c>
       <c r="H484">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I484">
         <v>140</v>
@@ -20643,7 +21126,8 @@
         <v>19</v>
       </c>
       <c r="H485">
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I485">
         <v>210</v>
@@ -20681,7 +21165,8 @@
         <v>19</v>
       </c>
       <c r="H486">
-        <v>380</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="I486">
         <v>2660</v>
@@ -20719,7 +21204,8 @@
         <v>19</v>
       </c>
       <c r="H487">
-        <v>80</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I487">
         <v>560</v>
@@ -20757,7 +21243,8 @@
         <v>19</v>
       </c>
       <c r="H488">
-        <v>70</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I488">
         <v>490</v>
@@ -20795,7 +21282,8 @@
         <v>19</v>
       </c>
       <c r="H489">
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I489">
         <v>280</v>
@@ -20833,7 +21321,8 @@
         <v>19</v>
       </c>
       <c r="H490">
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I490">
         <v>210</v>
@@ -20871,7 +21360,8 @@
         <v>19</v>
       </c>
       <c r="H491">
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I491">
         <v>210</v>
@@ -20909,7 +21399,8 @@
         <v>19</v>
       </c>
       <c r="H492">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I492">
         <v>140</v>
@@ -20947,7 +21438,8 @@
         <v>19</v>
       </c>
       <c r="H493">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I493">
         <v>140</v>
@@ -20985,7 +21477,8 @@
         <v>19</v>
       </c>
       <c r="H494">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I494">
         <v>140</v>
@@ -21023,7 +21516,8 @@
         <v>19</v>
       </c>
       <c r="H495">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I495">
         <v>140</v>
@@ -21061,7 +21555,8 @@
         <v>19</v>
       </c>
       <c r="H496">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I496">
         <v>140</v>
@@ -21099,7 +21594,8 @@
         <v>19</v>
       </c>
       <c r="H497">
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I497">
         <v>210</v>
@@ -21137,7 +21633,8 @@
         <v>19</v>
       </c>
       <c r="H498">
-        <v>160</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="I498">
         <v>1120</v>
@@ -21175,7 +21672,8 @@
         <v>19</v>
       </c>
       <c r="H499">
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I499">
         <v>210</v>
@@ -21213,7 +21711,8 @@
         <v>19</v>
       </c>
       <c r="H500">
-        <v>50</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I500">
         <v>350</v>
@@ -21251,7 +21750,8 @@
         <v>19</v>
       </c>
       <c r="H501">
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I501">
         <v>280</v>
@@ -21289,7 +21789,8 @@
         <v>19</v>
       </c>
       <c r="H502">
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I502">
         <v>210</v>
@@ -21327,7 +21828,8 @@
         <v>19</v>
       </c>
       <c r="H503">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I503">
         <v>140</v>
@@ -21365,7 +21867,8 @@
         <v>19</v>
       </c>
       <c r="H504">
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="I504">
         <v>140</v>
